--- a/seleniumSampleProject/TestData.xlsx
+++ b/seleniumSampleProject/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>LoginTest</t>
   </si>
@@ -28,19 +28,32 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>mubeenaafreen6@gmail.com</t>
+  </si>
+  <si>
+    <t>mubbyrahil6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,13 +73,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,7 +381,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -385,6 +404,12 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -392,6 +417,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/seleniumSampleProject/TestData.xlsx
+++ b/seleniumSampleProject/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="10515" windowHeight="4680"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11850" windowHeight="3390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,13 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>LoginTest</t>
-  </si>
-  <si>
-    <t>SignupTest</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -34,6 +29,12 @@
   </si>
   <si>
     <t>mubbyrahil6</t>
+  </si>
+  <si>
+    <t>LoginData</t>
+  </si>
+  <si>
+    <t>SignupData</t>
   </si>
 </sst>
 </file>
@@ -381,7 +382,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,26 +395,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
